--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.00683539768261</v>
+        <v>55.59510733333332</v>
       </c>
       <c r="H2">
-        <v>3.00683539768261</v>
+        <v>166.785322</v>
       </c>
       <c r="I2">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="J2">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.74953952529101</v>
+        <v>2.822718</v>
       </c>
       <c r="N2">
-        <v>2.74953952529101</v>
+        <v>8.468154</v>
       </c>
       <c r="O2">
-        <v>0.09785351276999396</v>
+        <v>0.0739039825466893</v>
       </c>
       <c r="P2">
-        <v>0.09785351276999396</v>
+        <v>0.0739039825466893</v>
       </c>
       <c r="Q2">
-        <v>8.267412771972449</v>
+        <v>156.929310181732</v>
       </c>
       <c r="R2">
-        <v>8.267412771972449</v>
+        <v>1412.363791635588</v>
       </c>
       <c r="S2">
-        <v>0.004710890804252623</v>
+        <v>0.03353187080006258</v>
       </c>
       <c r="T2">
-        <v>0.004710890804252623</v>
+        <v>0.03353187080006257</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.00683539768261</v>
+        <v>55.59510733333332</v>
       </c>
       <c r="H3">
-        <v>3.00683539768261</v>
+        <v>166.785322</v>
       </c>
       <c r="I3">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="J3">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.03429426994253</v>
+        <v>5.042448</v>
       </c>
       <c r="N3">
-        <v>5.03429426994253</v>
+        <v>15.127344</v>
       </c>
       <c r="O3">
-        <v>0.1791657745234958</v>
+        <v>0.1320206230252502</v>
       </c>
       <c r="P3">
-        <v>0.1791657745234958</v>
+        <v>0.1320206230252502</v>
       </c>
       <c r="Q3">
-        <v>15.13729421321393</v>
+        <v>280.335437782752</v>
       </c>
       <c r="R3">
-        <v>15.13729421321393</v>
+        <v>2523.018940044768</v>
       </c>
       <c r="S3">
-        <v>0.008625448139234821</v>
+        <v>0.0599006754667076</v>
       </c>
       <c r="T3">
-        <v>0.008625448139234821</v>
+        <v>0.05990067546670759</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.00683539768261</v>
+        <v>55.59510733333332</v>
       </c>
       <c r="H4">
-        <v>3.00683539768261</v>
+        <v>166.785322</v>
       </c>
       <c r="I4">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="J4">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.548071185594</v>
+        <v>28.06359933333333</v>
       </c>
       <c r="N4">
-        <v>18.548071185594</v>
+        <v>84.190798</v>
       </c>
       <c r="O4">
-        <v>0.6601083213838075</v>
+        <v>0.7347569807993387</v>
       </c>
       <c r="P4">
-        <v>0.6601083213838075</v>
+        <v>0.7347569807993388</v>
       </c>
       <c r="Q4">
-        <v>55.7709969995809</v>
+        <v>1560.198817096328</v>
       </c>
       <c r="R4">
-        <v>55.7709969995809</v>
+        <v>14041.78935386695</v>
       </c>
       <c r="S4">
-        <v>0.03177911689616093</v>
+        <v>0.3333754866869647</v>
       </c>
       <c r="T4">
-        <v>0.03177911689616093</v>
+        <v>0.3333754866869647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.00683539768261</v>
+        <v>55.59510733333332</v>
       </c>
       <c r="H5">
-        <v>3.00683539768261</v>
+        <v>166.785322</v>
       </c>
       <c r="I5">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="J5">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.76662155601576</v>
+        <v>2.265631</v>
       </c>
       <c r="N5">
-        <v>1.76662155601576</v>
+        <v>6.796893000000001</v>
       </c>
       <c r="O5">
-        <v>0.06287239132270277</v>
+        <v>0.05931841362872176</v>
       </c>
       <c r="P5">
-        <v>0.06287239132270277</v>
+        <v>0.05931841362872176</v>
       </c>
       <c r="Q5">
-        <v>5.31194022893732</v>
+        <v>125.9579986227273</v>
       </c>
       <c r="R5">
-        <v>5.31194022893732</v>
+        <v>1133.621987604546</v>
       </c>
       <c r="S5">
-        <v>0.003026820006142036</v>
+        <v>0.02691407571447682</v>
       </c>
       <c r="T5">
-        <v>0.003026820006142036</v>
+        <v>0.02691407571447682</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.38463888208636</v>
+        <v>1.654659</v>
       </c>
       <c r="H6">
-        <v>1.38463888208636</v>
+        <v>4.963977</v>
       </c>
       <c r="I6">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="J6">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.74953952529101</v>
+        <v>2.822718</v>
       </c>
       <c r="N6">
-        <v>2.74953952529101</v>
+        <v>8.468154</v>
       </c>
       <c r="O6">
-        <v>0.09785351276999396</v>
+        <v>0.0739039825466893</v>
       </c>
       <c r="P6">
-        <v>0.09785351276999396</v>
+        <v>0.0739039825466893</v>
       </c>
       <c r="Q6">
-        <v>3.807119334551205</v>
+        <v>4.670635743161999</v>
       </c>
       <c r="R6">
-        <v>3.807119334551205</v>
+        <v>42.035721688458</v>
       </c>
       <c r="S6">
-        <v>0.002169351399101693</v>
+        <v>0.0009979981057234896</v>
       </c>
       <c r="T6">
-        <v>0.002169351399101693</v>
+        <v>0.0009979981057234894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.38463888208636</v>
+        <v>1.654659</v>
       </c>
       <c r="H7">
-        <v>1.38463888208636</v>
+        <v>4.963977</v>
       </c>
       <c r="I7">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="J7">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.03429426994253</v>
+        <v>5.042448</v>
       </c>
       <c r="N7">
-        <v>5.03429426994253</v>
+        <v>15.127344</v>
       </c>
       <c r="O7">
-        <v>0.1791657745234958</v>
+        <v>0.1320206230252502</v>
       </c>
       <c r="P7">
-        <v>0.1791657745234958</v>
+        <v>0.1320206230252502</v>
       </c>
       <c r="Q7">
-        <v>6.970679590026992</v>
+        <v>8.343531965232</v>
       </c>
       <c r="R7">
-        <v>6.970679590026992</v>
+        <v>75.091787687088</v>
       </c>
       <c r="S7">
-        <v>0.00397199357111754</v>
+        <v>0.001782804216435789</v>
       </c>
       <c r="T7">
-        <v>0.00397199357111754</v>
+        <v>0.001782804216435789</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.38463888208636</v>
+        <v>1.654659</v>
       </c>
       <c r="H8">
-        <v>1.38463888208636</v>
+        <v>4.963977</v>
       </c>
       <c r="I8">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="J8">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.548071185594</v>
+        <v>28.06359933333333</v>
       </c>
       <c r="N8">
-        <v>18.548071185594</v>
+        <v>84.190798</v>
       </c>
       <c r="O8">
-        <v>0.6601083213838075</v>
+        <v>0.7347569807993387</v>
       </c>
       <c r="P8">
-        <v>0.6601083213838075</v>
+        <v>0.7347569807993388</v>
       </c>
       <c r="Q8">
-        <v>25.6823805512791</v>
+        <v>46.435687209294</v>
       </c>
       <c r="R8">
-        <v>25.6823805512791</v>
+        <v>417.921184883646</v>
       </c>
       <c r="S8">
-        <v>0.01463419012783511</v>
+        <v>0.009922145596708436</v>
       </c>
       <c r="T8">
-        <v>0.01463419012783511</v>
+        <v>0.009922145596708436</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.38463888208636</v>
+        <v>1.654659</v>
       </c>
       <c r="H9">
-        <v>1.38463888208636</v>
+        <v>4.963977</v>
       </c>
       <c r="I9">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="J9">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.76662155601576</v>
+        <v>2.265631</v>
       </c>
       <c r="N9">
-        <v>1.76662155601576</v>
+        <v>6.796893000000001</v>
       </c>
       <c r="O9">
-        <v>0.06287239132270277</v>
+        <v>0.05931841362872176</v>
       </c>
       <c r="P9">
-        <v>0.06287239132270277</v>
+        <v>0.05931841362872176</v>
       </c>
       <c r="Q9">
-        <v>2.446132896391328</v>
+        <v>3.748846724829</v>
       </c>
       <c r="R9">
-        <v>2.446132896391328</v>
+        <v>33.739620523461</v>
       </c>
       <c r="S9">
-        <v>0.001393841735670404</v>
+        <v>0.0008010348346056586</v>
       </c>
       <c r="T9">
-        <v>0.001393841735670404</v>
+        <v>0.0008010348346056585</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.0289658110759</v>
+        <v>62.05924166666666</v>
       </c>
       <c r="H10">
-        <v>55.0289658110759</v>
+        <v>186.177725</v>
       </c>
       <c r="I10">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734745</v>
       </c>
       <c r="J10">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734744</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.74953952529101</v>
+        <v>2.822718</v>
       </c>
       <c r="N10">
-        <v>2.74953952529101</v>
+        <v>8.468154</v>
       </c>
       <c r="O10">
-        <v>0.09785351276999396</v>
+        <v>0.0739039825466893</v>
       </c>
       <c r="P10">
-        <v>0.09785351276999396</v>
+        <v>0.0739039825466893</v>
       </c>
       <c r="Q10">
-        <v>151.3043165334409</v>
+        <v>175.17573851885</v>
       </c>
       <c r="R10">
-        <v>151.3043165334409</v>
+        <v>1576.58164666965</v>
       </c>
       <c r="S10">
-        <v>0.08621537753836613</v>
+        <v>0.03743067642696748</v>
       </c>
       <c r="T10">
-        <v>0.08621537753836613</v>
+        <v>0.03743067642696747</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.0289658110759</v>
+        <v>62.05924166666666</v>
       </c>
       <c r="H11">
-        <v>55.0289658110759</v>
+        <v>186.177725</v>
       </c>
       <c r="I11">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734745</v>
       </c>
       <c r="J11">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734744</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.03429426994253</v>
+        <v>5.042448</v>
       </c>
       <c r="N11">
-        <v>5.03429426994253</v>
+        <v>15.127344</v>
       </c>
       <c r="O11">
-        <v>0.1791657745234958</v>
+        <v>0.1320206230252502</v>
       </c>
       <c r="P11">
-        <v>0.1791657745234958</v>
+        <v>0.1320206230252502</v>
       </c>
       <c r="Q11">
-        <v>277.0320072635628</v>
+        <v>312.9304990236</v>
       </c>
       <c r="R11">
-        <v>277.0320072635628</v>
+        <v>2816.3744912124</v>
       </c>
       <c r="S11">
-        <v>0.1578568255265909</v>
+        <v>0.06686542527018614</v>
       </c>
       <c r="T11">
-        <v>0.1578568255265909</v>
+        <v>0.06686542527018613</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.0289658110759</v>
+        <v>62.05924166666666</v>
       </c>
       <c r="H12">
-        <v>55.0289658110759</v>
+        <v>186.177725</v>
       </c>
       <c r="I12">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734745</v>
       </c>
       <c r="J12">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734744</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.548071185594</v>
+        <v>28.06359933333333</v>
       </c>
       <c r="N12">
-        <v>18.548071185594</v>
+        <v>84.190798</v>
       </c>
       <c r="O12">
-        <v>0.6601083213838075</v>
+        <v>0.7347569807993387</v>
       </c>
       <c r="P12">
-        <v>0.6601083213838075</v>
+        <v>0.7347569807993388</v>
       </c>
       <c r="Q12">
-        <v>1020.681175133454</v>
+        <v>1741.605693063839</v>
       </c>
       <c r="R12">
-        <v>1020.681175133454</v>
+        <v>15674.45123757455</v>
       </c>
       <c r="S12">
-        <v>0.5815988259725875</v>
+        <v>0.3721376014260228</v>
       </c>
       <c r="T12">
-        <v>0.5815988259725875</v>
+        <v>0.3721376014260228</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.0289658110759</v>
+        <v>62.05924166666666</v>
       </c>
       <c r="H13">
-        <v>55.0289658110759</v>
+        <v>186.177725</v>
       </c>
       <c r="I13">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734745</v>
       </c>
       <c r="J13">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734744</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.76662155601576</v>
+        <v>2.265631</v>
       </c>
       <c r="N13">
-        <v>1.76662155601576</v>
+        <v>6.796893000000001</v>
       </c>
       <c r="O13">
-        <v>0.06287239132270277</v>
+        <v>0.05931841362872176</v>
       </c>
       <c r="P13">
-        <v>0.06287239132270277</v>
+        <v>0.05931841362872176</v>
       </c>
       <c r="Q13">
-        <v>97.21535720710096</v>
+        <v>140.6033417564917</v>
       </c>
       <c r="R13">
-        <v>97.21535720710096</v>
+        <v>1265.430075808425</v>
       </c>
       <c r="S13">
-        <v>0.05539470992081635</v>
+        <v>0.03004341945029818</v>
       </c>
       <c r="T13">
-        <v>0.05539470992081635</v>
+        <v>0.03004341945029817</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.03683565810645</v>
+        <v>3.222176333333334</v>
       </c>
       <c r="H14">
-        <v>3.03683565810645</v>
+        <v>9.666529000000001</v>
       </c>
       <c r="I14">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="J14">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.74953952529101</v>
+        <v>2.822718</v>
       </c>
       <c r="N14">
-        <v>2.74953952529101</v>
+        <v>8.468154</v>
       </c>
       <c r="O14">
-        <v>0.09785351276999396</v>
+        <v>0.0739039825466893</v>
       </c>
       <c r="P14">
-        <v>0.09785351276999396</v>
+        <v>0.0739039825466893</v>
       </c>
       <c r="Q14">
-        <v>8.349899673776822</v>
+        <v>9.095295135274</v>
       </c>
       <c r="R14">
-        <v>8.349899673776822</v>
+        <v>81.857656217466</v>
       </c>
       <c r="S14">
-        <v>0.004757893028273524</v>
+        <v>0.001943437213935757</v>
       </c>
       <c r="T14">
-        <v>0.004757893028273524</v>
+        <v>0.001943437213935757</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.03683565810645</v>
+        <v>3.222176333333334</v>
       </c>
       <c r="H15">
-        <v>3.03683565810645</v>
+        <v>9.666529000000001</v>
       </c>
       <c r="I15">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="J15">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.03429426994253</v>
+        <v>5.042448</v>
       </c>
       <c r="N15">
-        <v>5.03429426994253</v>
+        <v>15.127344</v>
       </c>
       <c r="O15">
-        <v>0.1791657745234958</v>
+        <v>0.1320206230252502</v>
       </c>
       <c r="P15">
-        <v>0.1791657745234958</v>
+        <v>0.1320206230252502</v>
       </c>
       <c r="Q15">
-        <v>15.28832435236245</v>
+        <v>16.247656607664</v>
       </c>
       <c r="R15">
-        <v>15.28832435236245</v>
+        <v>146.228909468976</v>
       </c>
       <c r="S15">
-        <v>0.008711507286552563</v>
+        <v>0.003471718071920727</v>
       </c>
       <c r="T15">
-        <v>0.008711507286552563</v>
+        <v>0.003471718071920726</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.03683565810645</v>
+        <v>3.222176333333334</v>
       </c>
       <c r="H16">
-        <v>3.03683565810645</v>
+        <v>9.666529000000001</v>
       </c>
       <c r="I16">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="J16">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.548071185594</v>
+        <v>28.06359933333333</v>
       </c>
       <c r="N16">
-        <v>18.548071185594</v>
+        <v>84.190798</v>
       </c>
       <c r="O16">
-        <v>0.6601083213838075</v>
+        <v>0.7347569807993387</v>
       </c>
       <c r="P16">
-        <v>0.6601083213838075</v>
+        <v>0.7347569807993388</v>
       </c>
       <c r="Q16">
-        <v>56.32744396550864</v>
+        <v>90.42586560001578</v>
       </c>
       <c r="R16">
-        <v>56.32744396550864</v>
+        <v>813.832790400142</v>
       </c>
       <c r="S16">
-        <v>0.03209618838722401</v>
+        <v>0.01932174708964293</v>
       </c>
       <c r="T16">
-        <v>0.03209618838722401</v>
+        <v>0.01932174708964293</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.03683565810645</v>
+        <v>3.222176333333334</v>
       </c>
       <c r="H17">
-        <v>3.03683565810645</v>
+        <v>9.666529000000001</v>
       </c>
       <c r="I17">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="J17">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.76662155601576</v>
+        <v>2.265631</v>
       </c>
       <c r="N17">
-        <v>1.76662155601576</v>
+        <v>6.796893000000001</v>
       </c>
       <c r="O17">
-        <v>0.06287239132270277</v>
+        <v>0.05931841362872176</v>
       </c>
       <c r="P17">
-        <v>0.06287239132270277</v>
+        <v>0.05931841362872176</v>
       </c>
       <c r="Q17">
-        <v>5.364939335688162</v>
+        <v>7.300262588266335</v>
       </c>
       <c r="R17">
-        <v>5.364939335688162</v>
+        <v>65.70236329439702</v>
       </c>
       <c r="S17">
-        <v>0.003057019660073985</v>
+        <v>0.001559883629341112</v>
       </c>
       <c r="T17">
-        <v>0.003057019660073985</v>
+        <v>0.001559883629341111</v>
       </c>
     </row>
   </sheetData>
